--- a/dataset/result/result01.xlsx
+++ b/dataset/result/result01.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tashatanarugsachock/Desktop/shopperbot-llm/dataset/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE42628-E32E-C647-84B4-716B733CE5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA71D94C-DF12-E54F-BFE5-CC546A088DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -2021,7 +2021,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2030,43 +2030,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2082,7 +2056,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45403.084853125001" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="108" xr:uid="{CE3039EC-22F0-4148-AFAB-2E1A794E81DE}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45404.594489351854" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="108" xr:uid="{340C1169-6D79-EE46-A96B-36605854F68F}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:K109" sheet="Sheet1"/>
   </cacheSource>
@@ -2126,17 +2100,12 @@
       <sharedItems containsNonDate="0"/>
     </cacheField>
     <cacheField name="Score" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="2">
-        <n v="1"/>
-        <n v="0"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
     </cacheField>
     <cacheField name="Counter" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1" count="1">
-        <n v="1"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
     </cacheField>
-    <cacheField name="Field1" numFmtId="0" formula="Score /Counter" databaseField="0"/>
+    <cacheField name="Field1" numFmtId="0" formula="Score/Counter" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -2158,8 +2127,8 @@
     <s v="C"/>
     <s v="C: Siam Paragon opens from 10:00 AM to 10:00 PM. "/>
     <s v="C"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="0"/>
@@ -2171,8 +2140,8 @@
     <s v="C"/>
     <s v=" C: Yes, there is free Wi-Fi available in Siam Paragon for customers to use."/>
     <s v="C"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="0"/>
@@ -2184,8 +2153,8 @@
     <s v="B"/>
     <s v="B: No, pets are not allowed in Siam Paragon."/>
     <s v="B"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="0"/>
@@ -2197,8 +2166,8 @@
     <s v="A"/>
     <s v="C: 02-937-1345"/>
     <s v="C"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="0"/>
@@ -2210,8 +2179,8 @@
     <s v="B"/>
     <s v="A: A: No, there are no prayer rooms available in Siam Paragon."/>
     <s v="A"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="0"/>
@@ -2223,8 +2192,8 @@
     <s v="C"/>
     <s v="A: No, there is no medical assistance available in Siam Paragon."/>
     <s v="A"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="0"/>
@@ -2236,8 +2205,8 @@
     <s v="D"/>
     <s v="D: Yes, luggages can be dropped off at Lock Box Plus+ on the G floor outside the shopping center."/>
     <s v="D"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="0"/>
@@ -2249,8 +2218,8 @@
     <s v="C"/>
     <s v=" A: No, smoking is not permitted anywhere in Siam Paragon."/>
     <s v="A"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="0"/>
@@ -2262,8 +2231,8 @@
     <s v="C"/>
     <s v="D: 6:00 PM to 9:00 PM"/>
     <s v="D"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="1"/>
@@ -2275,8 +2244,8 @@
     <s v="C"/>
     <s v="B: By downloading the Siam Paragon mobile app and registering for the loyalty program."/>
     <s v="B"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="1"/>
@@ -2288,8 +2257,8 @@
     <s v="B"/>
     <s v="D: Reserved parking and free parking hours are offered to all members."/>
     <s v="D"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="1"/>
@@ -2301,8 +2270,8 @@
     <s v="C"/>
     <s v="D: Yes, exclusive events are available for ONESIAM cardholders only."/>
     <s v="D"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="1"/>
@@ -2314,8 +2283,8 @@
     <s v="B"/>
     <s v="A: C: Yes, ONESIAM platinum cardholders can use loyalty points to pay for parking."/>
     <s v="C"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="1"/>
@@ -2327,8 +2296,8 @@
     <s v="C"/>
     <s v="B: Loyalty points can be redeemed for discounts at participating restaurants in Siam Paragon."/>
     <s v="B"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="1"/>
@@ -2340,8 +2309,8 @@
     <s v="D"/>
     <s v="A: B: No, membership points do not expire."/>
     <s v="B"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="1"/>
@@ -2353,8 +2322,8 @@
     <s v="B"/>
     <s v="B: Yes, Siam Paragon's loyalty program offers benefits across various shopping malls, including Siam Center, Siam Discovery, IconSiam, and more."/>
     <s v="B"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="1"/>
@@ -2366,8 +2335,8 @@
     <s v="D"/>
     <s v="B: No, SIAM GIFT CARDs are not available for purchase."/>
     <s v="B"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -2379,8 +2348,8 @@
     <s v="A"/>
     <s v="B: Parking costs 50 THB for the first hour, with an additional 30 THB for each subsequent hour."/>
     <s v="B"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -2392,8 +2361,8 @@
     <s v="B"/>
     <s v="A: Motorcycle parking areas are located on the ground floor and the second floor."/>
     <s v="A"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -2405,8 +2374,8 @@
     <s v="A"/>
     <s v="B: Yes, valet parking is available for a fee on the B1 floor and 1st floor."/>
     <s v="B"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -2418,8 +2387,8 @@
     <s v="D"/>
     <s v=" for further assistance.D: No information provided from the database, please contact our staff for further assistance."/>
     <s v="D"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -2431,8 +2400,8 @@
     <s v="A"/>
     <s v="A: C: By presenting receipts of 2,000 Baht or more to get 6 hours of free parking."/>
     <s v="C"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -2444,8 +2413,8 @@
     <s v="B"/>
     <s v="A: A: No, there are no electric vehicle charging stations at Siam Paragon."/>
     <s v="A"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -2457,8 +2426,8 @@
     <s v="B"/>
     <s v="B: No, parking reservations are not available at Siam Paragon."/>
     <s v="B"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -2470,8 +2439,8 @@
     <s v="A"/>
     <s v="A: C: Thanachart credit card, UOB credit card, CIMB credit card, GSB credit card, Tisco credit card"/>
     <s v="C"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -2483,8 +2452,8 @@
     <s v="D"/>
     <s v="A: B: No, there is no separate parking for bicycles or motorcycles."/>
     <s v="B"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -2496,8 +2465,8 @@
     <s v="B"/>
     <s v="B: Contact the Siam Paragon information center for assistance."/>
     <s v="B"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -2509,8 +2478,8 @@
     <s v="A"/>
     <s v="A: Yes, there are designated parking spots for expectant mothers at the priority parking area."/>
     <s v="A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -2522,8 +2491,8 @@
     <s v="B"/>
     <s v="A: D: Yes, priority parking spots are located near the store entrance on the ground floor and B1 floor only."/>
     <s v="D"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -2535,8 +2504,8 @@
     <s v="C"/>
     <s v=" C: the latest time is 10:00 PM"/>
     <s v="C"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="3"/>
@@ -2548,8 +2517,8 @@
     <s v="C"/>
     <s v="C: ATMs are available on various floors, including B1, G, and others."/>
     <s v="C"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="3"/>
@@ -2561,8 +2530,8 @@
     <s v="D"/>
     <s v="D: All of the above"/>
     <s v="D"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="3"/>
@@ -2574,8 +2543,8 @@
     <s v="A"/>
     <s v="C: Yes, currency exchange services are available at Krungsri Exchange and Thanachart Bank Currency Exchange on the 1st Floor South Zone."/>
     <s v="C"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="3"/>
@@ -2587,8 +2556,8 @@
     <s v="C"/>
     <s v="C: Yes, some bank branches may offer international money transfer services, but it's best to inquire directly with the banks for details."/>
     <s v="C"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="3"/>
@@ -2600,8 +2569,8 @@
     <s v="C"/>
     <s v="C: Yes, some ATMs at Siam Paragon may accept international cards, but it's best to inquire directly with the banks for details."/>
     <s v="C"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="3"/>
@@ -2613,8 +2582,8 @@
     <s v="A"/>
     <s v="D: No, banks in Siam Paragon do not offer travel insurance services."/>
     <s v="D"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="3"/>
@@ -2626,8 +2595,8 @@
     <s v="B"/>
     <s v="C: Yes, some banks may offer 24-hour banking services, but it's best to inquire directly with the banks for details."/>
     <s v="C"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="3"/>
@@ -2639,8 +2608,8 @@
     <s v="A"/>
     <s v=" D: SCB Exchange and Kasikornbank Currency Exchange on the Ground Floor, P&amp;P Jewelry on the 1st Floor, Krungsri Exchange and Thanachart Bank Currency Exchange on the 1st Floor South Zone, and Superrich on the 3rd Floor; operating hours vary from 10:00 AM to 9:00 PM."/>
     <s v="D"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="4"/>
@@ -2652,8 +2621,8 @@
     <s v="A"/>
     <s v="A: Restrooms are available on the North and South sides of all floors."/>
     <s v="A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="4"/>
@@ -2665,8 +2634,8 @@
     <s v="C"/>
     <s v="D: Yes, there are designated restrooms specifically for families with baby changing facilities."/>
     <s v="D"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="4"/>
@@ -2678,8 +2647,8 @@
     <s v="B"/>
     <s v="B: Yes, accessible restrooms for disabled guests are available on the North and South sides of all floors."/>
     <s v="B"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="4"/>
@@ -2691,8 +2660,8 @@
     <s v="B"/>
     <s v="C: Yes, restrooms near the elevators usually have shorter wait times."/>
     <s v="C"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="4"/>
@@ -2704,8 +2673,8 @@
     <s v="D"/>
     <s v="A: C: Yes, family restrooms are available, but their locations vary."/>
     <s v="C"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="4"/>
@@ -2717,8 +2686,8 @@
     <s v="B"/>
     <s v="C: There is no specific information available regarding restrooms with the shortest wait times."/>
     <s v="C"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="5"/>
@@ -2730,8 +2699,8 @@
     <s v="C"/>
     <s v="C: On the Ground Floor"/>
     <s v="C"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="5"/>
@@ -2743,8 +2712,8 @@
     <s v="C"/>
     <s v="C: 11:00 AM to 8:00 PM"/>
     <s v="C"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="5"/>
@@ -2756,8 +2725,8 @@
     <s v="A"/>
     <s v="B: Electron, Power Buy, JIB, IT City, Jaymart, Banana IT, Advice, Techland"/>
     <s v="B"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="5"/>
@@ -2769,8 +2738,8 @@
     <s v="D"/>
     <s v="D: Call 02 129 4657 or Visit their storefront on the third floor"/>
     <s v="D"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="5"/>
@@ -2782,8 +2751,8 @@
     <s v="A"/>
     <s v="C: Yes, there are only a few clothing stores available, such as Gucci, Zara, and H&amp;M."/>
     <s v="C"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="5"/>
@@ -2795,8 +2764,8 @@
     <s v="B"/>
     <s v="B: Jumbo Seafood, Bonchon, and Starbucks"/>
     <s v="B"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="5"/>
@@ -2808,8 +2777,8 @@
     <s v="A"/>
     <s v="C: None of the stores offer store credit cards or financing options."/>
     <s v="C"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="5"/>
@@ -2821,8 +2790,8 @@
     <s v="C"/>
     <s v="C: There might be pop-up stores or temporary exhibitions, but you need to visit https://www.siamparagon.co.th/happening/event to stay updated."/>
     <s v="C"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="5"/>
@@ -2834,8 +2803,8 @@
     <s v="A"/>
     <s v="A: A: Flower Decor"/>
     <s v="A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="5"/>
@@ -2847,8 +2816,8 @@
     <s v="D"/>
     <s v="D: All of the above"/>
     <s v="D"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="5"/>
@@ -2860,8 +2829,8 @@
     <s v="B"/>
     <s v="A: D: Zara and Uniqlo"/>
     <s v="D"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="5"/>
@@ -2873,8 +2842,8 @@
     <s v="C"/>
     <s v="C: Asia Books and Kinokuniya"/>
     <s v="C"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="5"/>
@@ -2886,8 +2855,8 @@
     <s v="A"/>
     <s v=" A: Pranali Wellness Spa"/>
     <s v="A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="5"/>
@@ -2899,8 +2868,8 @@
     <s v="D"/>
     <s v=", TrueB: Electron, Power Buy, JIB, IT City, Jaymart, Banana IT, Advice, Techland"/>
     <s v="B"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="5"/>
@@ -2912,8 +2881,8 @@
     <s v="B"/>
     <s v="B: Channintr, ZARA HOME, and Paragon Living Hall"/>
     <s v="B"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -2925,8 +2894,8 @@
     <s v="A"/>
     <s v="A: A: McDonald's, Burger King and KFC on the G floor"/>
     <s v="A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -2938,8 +2907,8 @@
     <s v="C"/>
     <s v="C: While specific vegetarian options are not listed, there are various cuisines available in the food court, including vegetarian options."/>
     <s v="C"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -2951,8 +2920,8 @@
     <s v="A"/>
     <s v="A: A: Lukkaithong and Jumbo Seafood"/>
     <s v="A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -2964,8 +2933,8 @@
     <s v="C"/>
     <s v="C: Reservation policies vary by location, so it's best to contact the restaurant directly to inquire about reservations."/>
     <s v="C"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -2977,8 +2946,8 @@
     <s v="D"/>
     <s v="D: While there are no Michelin-starred restaurants here, there are many other excellent dining options available."/>
     <s v="D"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -2990,8 +2959,8 @@
     <s v="B"/>
     <s v="A: B: Another Hound Café"/>
     <s v="B"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -3003,8 +2972,8 @@
     <s v="C"/>
     <s v="C: While specific information about halal food options is not available, there are likely restaurants that serve halal food."/>
     <s v="C"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -3016,8 +2985,8 @@
     <s v="C"/>
     <s v="A: C"/>
     <s v="A"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -3029,8 +2998,8 @@
     <s v="A"/>
     <s v="D: Honmono Sushi, Evaime Shabu, Saboten"/>
     <s v="D"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -3042,8 +3011,8 @@
     <s v="D"/>
     <s v="A: D: The Grill Tokyo"/>
     <s v="D"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -3055,8 +3024,8 @@
     <s v="B"/>
     <s v="B: Saboten and Suki Masa"/>
     <s v="B"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -3068,8 +3037,8 @@
     <s v="C"/>
     <s v=" C: While specific halal options are not listed, there are likely options available in the food court."/>
     <s v="C"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -3081,8 +3050,8 @@
     <s v="D"/>
     <s v=".D: While specific halal options are not listed, there are likely options available in Siam Paragon."/>
     <s v="D"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -3094,8 +3063,8 @@
     <s v="A"/>
     <s v="C: Suki Masa"/>
     <s v="C"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -3107,8 +3076,8 @@
     <s v="D"/>
     <s v="The correct choice is D: The Grill Tokyo."/>
     <s v="D"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -3120,8 +3089,8 @@
     <s v="C"/>
     <s v="B: Suki Masa"/>
     <s v="B"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -3133,8 +3102,8 @@
     <s v="A"/>
     <s v="A: Another Hound Café"/>
     <s v="A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -3146,8 +3115,8 @@
     <s v="D"/>
     <s v="D: The Grill Tokyo"/>
     <s v="D"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -3159,8 +3128,8 @@
     <s v="A"/>
     <s v="B: Laem Cha-Roen Seafood and Jumbo Seafood"/>
     <s v="B"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -3172,8 +3141,8 @@
     <s v="C"/>
     <s v="A: The Grill Tokyo"/>
     <s v="A"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -3185,8 +3154,8 @@
     <s v="B"/>
     <s v="B: Coffee Beans by Dao and Starbucks"/>
     <s v="B"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -3198,8 +3167,8 @@
     <s v="D"/>
     <s v="D: Visit the cinema directly on the 5th floor or buy ticket online through the website"/>
     <s v="D"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -3211,8 +3180,8 @@
     <s v="A"/>
     <s v="A: A: Both IMAX and 4DX are offered at the cinema"/>
     <s v="A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -3224,8 +3193,8 @@
     <s v="D"/>
     <s v="A: No, discounts are not available for students or seniors."/>
     <s v="A"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -3237,8 +3206,8 @@
     <s v="A"/>
     <s v="A: The Krungsri IMAX cinema operates from 10:00 to 22:00 daily. Ticket prices vary based on the screening format and seating options."/>
     <s v="A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -3250,8 +3219,8 @@
     <s v="B"/>
     <s v="B: Sorry, we don't have information on the latest movie releases. It's best to check the cinema's official website or listings for the most up-to-date information."/>
     <s v="B"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -3263,8 +3232,8 @@
     <s v="C"/>
     <s v="C: The latest movie screening times vary depending on the cinema's schedule, so it's best to check their official website or contact them directly for the most accurate information. "/>
     <s v="C"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="7"/>
@@ -3276,8 +3245,8 @@
     <s v="A"/>
     <s v="A: B: The Lost &amp; Found Center is located at the Car Park area near the South lift lobby exit. Alternatively, you can seek assistance from any customer relations counter for further guidance."/>
     <s v="B"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="7"/>
@@ -3289,8 +3258,8 @@
     <s v="D"/>
     <s v="D: The Information Center is located on the Ground floor near the north zone entrance, as well as near the south zone entrance by the Food Court."/>
     <s v="D"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="7"/>
@@ -3302,8 +3271,8 @@
     <s v="D"/>
     <s v="C: Unfortunately, mall maps are not available at the Information Centers."/>
     <s v="C"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="7"/>
@@ -3315,8 +3284,8 @@
     <s v="B"/>
     <s v="B: Yes, language assistance is available upon request."/>
     <s v="B"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="7"/>
@@ -3328,8 +3297,8 @@
     <s v="B"/>
     <s v="B: Yes, the Information Center can assist with lost and found items."/>
     <s v="B"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="7"/>
@@ -3341,8 +3310,8 @@
     <s v="C"/>
     <s v="C: At the Information Center or at each individual store"/>
     <s v="C"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="7"/>
@@ -3354,8 +3323,8 @@
     <s v="A"/>
     <s v="The correct choice is A: At the Information Center or at the entrance."/>
     <s v="A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="7"/>
@@ -3367,8 +3336,8 @@
     <s v="D"/>
     <s v="A: D: Customer service desks are located throughout the shopping mall with one near the food court"/>
     <s v="D"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="7"/>
@@ -3380,8 +3349,8 @@
     <s v="C"/>
     <s v="C: Near the information center"/>
     <s v="C"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="7"/>
@@ -3393,8 +3362,8 @@
     <s v="B"/>
     <s v="B: Fill out the VAT Refund Application for Tourist Form (P.P.10) available at participating stores"/>
     <s v="B"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="7"/>
@@ -3406,8 +3375,8 @@
     <s v="C"/>
     <s v="C: On the mall's website."/>
     <s v="C"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="8"/>
@@ -3419,8 +3388,8 @@
     <s v="A"/>
     <s v="A: A: By BTS Skytrain or MRT Subway"/>
     <s v="A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="8"/>
@@ -3432,8 +3401,8 @@
     <s v="B"/>
     <s v="B: Yes, there is a BTS Skytrain station, Siam Station, nearby."/>
     <s v="B"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="8"/>
@@ -3445,8 +3414,8 @@
     <s v="B"/>
     <s v="A: B: No, there aren't any shuttle services."/>
     <s v="B"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="8"/>
@@ -3458,8 +3427,8 @@
     <s v="D"/>
     <s v="C: Using public transportation like the BTS Skytrain or MRT Subway."/>
     <s v="C"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="8"/>
@@ -3471,8 +3440,8 @@
     <s v="B"/>
     <s v="B: Yes, there are taxi stands conveniently located near Siam Paragon."/>
     <s v="B"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="9"/>
@@ -3484,8 +3453,8 @@
     <s v="A"/>
     <s v="A: Today's events can be found on our website at https://www.siamparagon.co.th/happening/event."/>
     <s v="A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="9"/>
@@ -3497,8 +3466,8 @@
     <s v="B"/>
     <s v="B: Yes, you can find information about ongoing sales or promotions on our website or by contacting the stores directly."/>
     <s v="B"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="9"/>
@@ -3510,8 +3479,8 @@
     <s v="C"/>
     <s v="C: There is no specific information on the Christmas show, you can explore the latest events and shows on our website at https://www.siamparagon.co.th/happening/event"/>
     <s v="C"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="9"/>
@@ -3523,8 +3492,8 @@
     <s v="B"/>
     <s v="B: The schedule for holiday events can be found on the mall's official website."/>
     <s v="B"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="9"/>
@@ -3536,8 +3505,8 @@
     <s v="D"/>
     <s v="A: Subscribe to the mall's newsletter."/>
     <s v="A"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="9"/>
@@ -3549,14 +3518,14 @@
     <s v="D"/>
     <s v="D: All of the above."/>
     <s v="D"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{45B03ADF-D1FD-4B4D-954B-B78A1F831A3C}" name="PivotTable4" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A23308B5-47B9-A344-A116-9AA1DF52EF5D}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
@@ -3582,19 +3551,8 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
@@ -3655,19 +3613,19 @@
     <dataField name="Percentage" fld="11" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="9">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
-          <reference field="4294967294" count="1">
+          <reference field="4294967294" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
-          <reference field="4294967294" count="1" selected="0">
+          <reference field="4294967294" count="1">
             <x v="2"/>
           </reference>
         </references>
@@ -3970,11 +3928,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4965DC32-EF06-524C-A9E8-2DF6266CE224}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DA0B0E-95E6-9441-9E8F-7CE8F0C5A6A4}">
   <dimension ref="A3:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D4" sqref="D4:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3995,7 +3953,7 @@
       <c r="C3" t="s">
         <v>641</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>642</v>
       </c>
     </row>
@@ -4003,13 +3961,13 @@
       <c r="A4" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4">
         <v>8</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>0.5</v>
       </c>
     </row>
@@ -4017,13 +3975,13 @@
       <c r="A5" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>5</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>6</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -4031,13 +3989,13 @@
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6">
         <v>9</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>0.44444444444444442</v>
       </c>
     </row>
@@ -4045,13 +4003,13 @@
       <c r="A7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>8</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>0.125</v>
       </c>
     </row>
@@ -4059,13 +4017,13 @@
       <c r="A8" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>9</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>11</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>0.81818181818181823</v>
       </c>
     </row>
@@ -4073,13 +4031,13 @@
       <c r="A9" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <v>13</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>0.38461538461538464</v>
       </c>
     </row>
@@ -4087,13 +4045,13 @@
       <c r="A10" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>4</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10">
         <v>5</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>0.8</v>
       </c>
     </row>
@@ -4101,27 +4059,27 @@
       <c r="A11" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B11" s="4">
-        <v>20</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B11">
+        <v>21</v>
+      </c>
+      <c r="C11">
         <v>27</v>
       </c>
-      <c r="D11" s="5">
-        <v>0.7407407407407407</v>
+      <c r="D11" s="4">
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>6</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -4129,13 +4087,13 @@
       <c r="A13" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13">
         <v>15</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -4143,18 +4101,19 @@
       <c r="A14" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="B14" s="4">
-        <v>64</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14">
+        <v>65</v>
+      </c>
+      <c r="C14">
         <v>108</v>
       </c>
-      <c r="D14" s="5">
-        <v>0.59259259259259256</v>
+      <c r="D14" s="4">
+        <v>0.60185185185185186</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4163,7 +4122,7 @@
   <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="A1:K109"/>
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6542,7 +6501,7 @@
         <v>2</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -7985,5 +7944,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>